--- a/test_AXA.xlsx
+++ b/test_AXA.xlsx
@@ -5,10 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="AXA 1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Statistics" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="data" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="setosa" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="versicolor" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="virginica" sheetId="5" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,20 +24,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="11">
   <si>
-    <t xml:space="preserve">Inputs</t>
+    <t xml:space="preserve">Sepal.Length</t>
   </si>
   <si>
-    <t xml:space="preserve">Output</t>
+    <t xml:space="preserve">mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">setosa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">versicolor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">virginica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sepal.Width</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Petal.Length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Petal.Width</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Species</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -67,12 +99,19 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -101,9 +140,33 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -299,65 +362,306 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B9:C14"/>
+  <dimension ref="A4:D25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="8.37"/>
+  </cols>
   <sheetData>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="e">
+        <f aca="false">AVERAGEIF(data!E:E,A5,data!A:A)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C5" s="4" t="n">
+        <f aca="false">_xlfn.MINIFS(data!A:A,data!E:E,A5)</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <f aca="false">_xlfn.MAXIFS(data!A:A,data!E:E,A5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="e">
+        <f aca="false">AVERAGEIF(data!E:E,A6,data!A:A)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <f aca="false">_xlfn.MINIFS(data!A:A,data!E:E,A6)</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <f aca="false">_xlfn.MAXIFS(data!A:A,data!E:E,A6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="e">
+        <f aca="false">AVERAGEIF(data!E:E,A7,data!A:A)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C7" s="4" t="n">
+        <f aca="false">_xlfn.MINIFS(data!A:A,data!E:E,A7)</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <f aca="false">_xlfn.MAXIFS(data!A:A,data!E:E,A7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+    </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="B9" s="6"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <f aca="false">B10*3</f>
-        <v>60</v>
+      <c r="C10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="1" t="n">
+      <c r="A11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="4" t="e">
+        <f aca="false">AVERAGEIF(data!E:E,A11,data!B:B)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C11" s="4" t="n">
+        <f aca="false">_xlfn.MINIFS(data!B:B,data!E:E,A11)</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <f aca="false">_xlfn.MAXIFS(data!B:B,data!E:E,A11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="4" t="e">
+        <f aca="false">AVERAGEIF(data!E:E,A12,data!B:B)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C12" s="4" t="n">
+        <f aca="false">_xlfn.MINIFS(data!B:B,data!E:E,A12)</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="4" t="n">
+        <f aca="false">_xlfn.MAXIFS(data!B:B,data!E:E,A12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="4" t="e">
+        <f aca="false">AVERAGEIF(data!E:E,A13,data!B:B)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C13" s="4" t="n">
+        <f aca="false">_xlfn.MINIFS(data!B:B,data!E:E,A13)</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="4" t="n">
+        <f aca="false">_xlfn.MAXIFS(data!B:B,data!E:E,A13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="6"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+    </row>
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="1" t="n">
-        <f aca="false">B11*3</f>
+      <c r="D16" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="4" t="e">
+        <f aca="false">AVERAGEIF(data!E:E,A17,data!A:A)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C17" s="4" t="n">
+        <f aca="false">_xlfn.MINIFS(data!A:A,data!E:E,A17)</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="4" t="n">
+        <f aca="false">_xlfn.MAXIFS(data!A:A,data!E:E,A17)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="4" t="e">
+        <f aca="false">AVERAGEIF(data!E:E,A18,data!A:A)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C18" s="4" t="n">
+        <f aca="false">_xlfn.MINIFS(data!A:A,data!E:E,A18)</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="4" t="n">
+        <f aca="false">_xlfn.MAXIFS(data!A:A,data!E:E,A18)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="1" t="n">
+      <c r="B19" s="4" t="e">
+        <f aca="false">AVERAGEIF(data!E:E,A19,data!A:A)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C19" s="4" t="n">
+        <f aca="false">_xlfn.MINIFS(data!A:A,data!E:E,A19)</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="4" t="n">
+        <f aca="false">_xlfn.MAXIFS(data!A:A,data!E:E,A19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+    </row>
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="1" t="n">
-        <f aca="false">B12*3</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="1" t="n">
+    </row>
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="1" t="n">
-        <f aca="false">B13*3</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="1" t="n">
+      <c r="B23" s="4" t="e">
+        <f aca="false">AVERAGEIF(data!E:E,A23,data!A:A)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C23" s="4" t="n">
+        <f aca="false">_xlfn.MINIFS(data!A:A,data!E:E,A23)</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="4" t="n">
+        <f aca="false">_xlfn.MAXIFS(data!A:A,data!E:E,A23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="1" t="n">
-        <f aca="false">B14*3</f>
-        <v>15</v>
+      <c r="B24" s="4" t="e">
+        <f aca="false">AVERAGEIF(data!E:E,A24,data!A:A)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C24" s="4" t="n">
+        <f aca="false">_xlfn.MINIFS(data!A:A,data!E:E,A24)</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="4" t="n">
+        <f aca="false">_xlfn.MAXIFS(data!A:A,data!E:E,A24)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="4" t="e">
+        <f aca="false">AVERAGEIF(data!E:E,A25,data!A:A)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C25" s="4" t="n">
+        <f aca="false">_xlfn.MINIFS(data!A:A,data!E:E,A25)</f>
+        <v>0</v>
+      </c>
+      <c r="D25" s="4" t="n">
+        <f aca="false">_xlfn.MAXIFS(data!A:A,data!E:E,A25)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -369,4 +673,568 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E151"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B151" activeCellId="0" sqref="B151"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.3671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="1" width="13.93"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E3" s="7"/>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E11" s="7"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E18" s="7"/>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E19" s="7"/>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E20" s="7"/>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E21" s="7"/>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E22" s="7"/>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E23" s="7"/>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E24" s="7"/>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E25" s="7"/>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E26" s="7"/>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E27" s="7"/>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E28" s="7"/>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E29" s="7"/>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E30" s="7"/>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E31" s="7"/>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E32" s="7"/>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E33" s="7"/>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E34" s="7"/>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E35" s="7"/>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E36" s="7"/>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E37" s="7"/>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E38" s="7"/>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E39" s="7"/>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E40" s="7"/>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E41" s="7"/>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E42" s="7"/>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E43" s="7"/>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E44" s="7"/>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E45" s="7"/>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E46" s="7"/>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E47" s="7"/>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E48" s="7"/>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E49" s="7"/>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E50" s="7"/>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E51" s="7"/>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E52" s="7"/>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E53" s="7"/>
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E54" s="7"/>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E55" s="7"/>
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E56" s="7"/>
+    </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E57" s="7"/>
+    </row>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E58" s="7"/>
+    </row>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E59" s="7"/>
+    </row>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E60" s="7"/>
+    </row>
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E61" s="7"/>
+    </row>
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E62" s="7"/>
+    </row>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E63" s="7"/>
+    </row>
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E64" s="7"/>
+    </row>
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E65" s="7"/>
+    </row>
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E66" s="7"/>
+    </row>
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E67" s="7"/>
+    </row>
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E68" s="7"/>
+    </row>
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E69" s="7"/>
+    </row>
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E70" s="7"/>
+    </row>
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E71" s="7"/>
+    </row>
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E72" s="7"/>
+    </row>
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E73" s="7"/>
+    </row>
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E74" s="7"/>
+    </row>
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E75" s="7"/>
+    </row>
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E76" s="7"/>
+    </row>
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E77" s="7"/>
+    </row>
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E78" s="7"/>
+    </row>
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E79" s="7"/>
+    </row>
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E80" s="7"/>
+    </row>
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E81" s="7"/>
+    </row>
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E82" s="7"/>
+    </row>
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E83" s="7"/>
+    </row>
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E84" s="7"/>
+    </row>
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E85" s="7"/>
+    </row>
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E86" s="7"/>
+    </row>
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E87" s="7"/>
+    </row>
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E88" s="7"/>
+    </row>
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E89" s="7"/>
+    </row>
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E90" s="7"/>
+    </row>
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E91" s="7"/>
+    </row>
+    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E92" s="7"/>
+    </row>
+    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E93" s="7"/>
+    </row>
+    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E94" s="7"/>
+    </row>
+    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E95" s="7"/>
+    </row>
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E96" s="7"/>
+    </row>
+    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E97" s="7"/>
+    </row>
+    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E98" s="7"/>
+    </row>
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E99" s="7"/>
+    </row>
+    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E100" s="7"/>
+    </row>
+    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E101" s="7"/>
+    </row>
+    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E102" s="7"/>
+    </row>
+    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E103" s="7"/>
+    </row>
+    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E104" s="7"/>
+    </row>
+    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E105" s="7"/>
+    </row>
+    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E106" s="7"/>
+    </row>
+    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E107" s="7"/>
+    </row>
+    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E108" s="7"/>
+    </row>
+    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E109" s="7"/>
+    </row>
+    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E110" s="7"/>
+    </row>
+    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E111" s="7"/>
+    </row>
+    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E112" s="7"/>
+    </row>
+    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E113" s="7"/>
+    </row>
+    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E114" s="7"/>
+    </row>
+    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E115" s="7"/>
+    </row>
+    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E116" s="7"/>
+    </row>
+    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E117" s="7"/>
+    </row>
+    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E118" s="7"/>
+    </row>
+    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E119" s="7"/>
+    </row>
+    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E120" s="7"/>
+    </row>
+    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E121" s="7"/>
+    </row>
+    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E122" s="7"/>
+    </row>
+    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E123" s="7"/>
+    </row>
+    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E124" s="7"/>
+    </row>
+    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E125" s="7"/>
+    </row>
+    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E126" s="7"/>
+    </row>
+    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E127" s="7"/>
+    </row>
+    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E128" s="7"/>
+    </row>
+    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E129" s="7"/>
+    </row>
+    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E130" s="7"/>
+    </row>
+    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E131" s="7"/>
+    </row>
+    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E132" s="7"/>
+    </row>
+    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E133" s="7"/>
+    </row>
+    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E134" s="7"/>
+    </row>
+    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E135" s="7"/>
+    </row>
+    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E136" s="7"/>
+    </row>
+    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E137" s="7"/>
+    </row>
+    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E138" s="7"/>
+    </row>
+    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E139" s="7"/>
+    </row>
+    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E140" s="7"/>
+    </row>
+    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E141" s="7"/>
+    </row>
+    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E142" s="7"/>
+    </row>
+    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E143" s="7"/>
+    </row>
+    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E144" s="7"/>
+    </row>
+    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E145" s="7"/>
+    </row>
+    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E146" s="7"/>
+    </row>
+    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E147" s="7"/>
+    </row>
+    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E148" s="7"/>
+    </row>
+    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E149" s="7"/>
+    </row>
+    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E150" s="7"/>
+    </row>
+    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E151" s="7"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.3671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.3671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.3671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>